--- a/biology/Médecine/Externat_(médecine)/Externat_(médecine).xlsx
+++ b/biology/Médecine/Externat_(médecine)/Externat_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Externat_(m%C3%A9decine)</t>
+          <t>Externat_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, l’externat correspond aux années de stages cliniques des étudiants en médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Externat_(m%C3%A9decine)</t>
+          <t>Externat_(médecine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Au Québec</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après 2 à 3 années de formation théorique (selon l'université), l'étudiant au doctorat en médecine (M.D) commence ses stages en milieu clinique. Il acquiert alors le titre d'externe en médecine. Ces stages se déroulent sous supervision des médecins et des médecins résidents. L'externe effectue donc plusieurs stages obligatoires et/ou optionnels en spécialités (médecine familiale, urgence, psychiatrie, pédiatrie, etc.) afin d'acquérir des connaissances et des compétences pratiques sur l'exercice de la médecine. L'externat se déroule généralement sur 2 ans et se termine par l'obtention du doctorat en médecine si l'externe rencontre les critères d'obtentions du diplôme.
 Au terme de l'externat, l'étudiant doit poursuivre sa formation à titre de médecin résident en choisissant l'un des programmes de formations post-doctorales (spécialité). Il ne peut toutefois être accepté dans l'un de ces programmes qu'à la condition d'avoir réussi l'examen du Conseil médical canadien, qui s'ajoute aux critères de diplomation.
